--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_300__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_300__Reeval_LHS_Modell_1.2.xlsx
@@ -5882,19 +5882,19 @@
                   <c:v>55.45317459106445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.56570434570312</c:v>
+                  <c:v>42.56570816040039</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42.56389999389648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.96294403076172</c:v>
+                  <c:v>57.96294021606445</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42.56389617919922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.56437683105469</c:v>
+                  <c:v>42.56436920166016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>55.50426864624023</c:v>
@@ -5903,7 +5903,7 @@
                   <c:v>57.74295425415039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.56390380859375</c:v>
+                  <c:v>42.56389999389648</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42.56391525268555</c:v>
@@ -5912,7 +5912,7 @@
                   <c:v>42.89017486572266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.56389999389648</c:v>
+                  <c:v>42.56390380859375</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42.56390380859375</c:v>
@@ -5924,13 +5924,13 @@
                   <c:v>42.56389999389648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.56561279296875</c:v>
+                  <c:v>42.56561660766602</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42.56383514404297</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.56390380859375</c:v>
+                  <c:v>42.56389999389648</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42.56387710571289</c:v>
@@ -5939,13 +5939,13 @@
                   <c:v>42.56389999389648</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.50092315673828</c:v>
+                  <c:v>55.50091934204102</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.56390380859375</c:v>
+                  <c:v>42.56389999389648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.44839859008789</c:v>
+                  <c:v>55.44839096069336</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>54.10882568359375</c:v>
@@ -5954,16 +5954,16 @@
                   <c:v>42.56389617919922</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>55.48191452026367</c:v>
+                  <c:v>55.4819221496582</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85.989501953125</c:v>
+                  <c:v>85.98950958251953</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>42.56391525268555</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.56390380859375</c:v>
+                  <c:v>42.56389999389648</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>42.58822250366211</c:v>
@@ -5984,13 +5984,13 @@
                   <c:v>42.56386947631836</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.56390380859375</c:v>
+                  <c:v>42.56389999389648</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>55.51211929321289</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>57.74325942993164</c:v>
+                  <c:v>57.74325561523438</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42.56390380859375</c:v>
@@ -6014,28 +6014,28 @@
                   <c:v>55.50676345825195</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42.56387710571289</c:v>
+                  <c:v>42.56388092041016</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42.56417465209961</c:v>
+                  <c:v>42.56417846679688</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>42.56387329101562</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42.56519317626953</c:v>
+                  <c:v>42.565185546875</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>55.50165176391602</c:v>
+                  <c:v>55.50165939331055</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>86.00489044189453</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42.93858337402344</c:v>
+                  <c:v>42.93857955932617</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42.56389617919922</c:v>
+                  <c:v>42.56389236450195</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>42.56386566162109</c:v>
@@ -6050,13 +6050,13 @@
                   <c:v>42.56387710571289</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42.56390762329102</c:v>
+                  <c:v>42.56391143798828</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42.56641006469727</c:v>
+                  <c:v>42.56641387939453</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>55.54679107666016</c:v>
+                  <c:v>55.54679870605469</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>42.56385803222656</c:v>
@@ -6065,7 +6065,7 @@
                   <c:v>60.83100891113281</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42.56631851196289</c:v>
+                  <c:v>42.56632232666016</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>85.90477752685547</c:v>
@@ -6092,25 +6092,25 @@
                   <c:v>42.56384658813477</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>55.50120544433594</c:v>
+                  <c:v>55.50120162963867</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>55.48994827270508</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>55.51597213745117</c:v>
+                  <c:v>55.51596832275391</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>54.92522811889648</c:v>
+                  <c:v>54.92522430419922</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>55.50193405151367</c:v>
+                  <c:v>55.5019416809082</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>51.20030212402344</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42.56391906738281</c:v>
+                  <c:v>42.56391525268555</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>57.59721374511719</c:v>
@@ -6119,13 +6119,13 @@
                   <c:v>54.45105743408203</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>47.94087219238281</c:v>
+                  <c:v>47.94086837768555</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>46.62442779541016</c:v>
+                  <c:v>46.62442398071289</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>42.56388092041016</c:v>
+                  <c:v>42.56388854980469</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>55.61277770996094</c:v>
@@ -6143,16 +6143,16 @@
                   <c:v>55.50272750854492</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>55.4810905456543</c:v>
+                  <c:v>55.48108673095703</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>42.5639533996582</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42.57366180419922</c:v>
+                  <c:v>42.57365798950195</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42.56393432617188</c:v>
+                  <c:v>42.56394195556641</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>57.87711715698242</c:v>
@@ -6955,7 +6955,7 @@
         <v>88.07989999999999</v>
       </c>
       <c r="F5">
-        <v>42.56570434570312</v>
+        <v>42.56570816040039</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.96294403076172</v>
+        <v>57.96294021606445</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7071,7 +7071,7 @@
         <v>70.2401</v>
       </c>
       <c r="F9">
-        <v>42.56437683105469</v>
+        <v>42.56436920166016</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>42.56390380859375</v>
+        <v>42.56389999389648</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>42.56389999389648</v>
+        <v>42.56390380859375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>53.0182</v>
       </c>
       <c r="F19">
-        <v>42.56561279296875</v>
+        <v>42.56561660766602</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.56390380859375</v>
+        <v>42.56389999389648</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>48.1493</v>
       </c>
       <c r="F24">
-        <v>55.50092315673828</v>
+        <v>55.50091934204102</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>92.7298</v>
       </c>
       <c r="F25">
-        <v>42.56390380859375</v>
+        <v>42.56389999389648</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>98.4127</v>
       </c>
       <c r="F26">
-        <v>55.44839859008789</v>
+        <v>55.44839096069336</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>55.48191452026367</v>
+        <v>55.4819221496582</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>85.989501953125</v>
+        <v>85.98950958251953</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>88.6494</v>
       </c>
       <c r="F32">
-        <v>42.56390380859375</v>
+        <v>42.56389999389648</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>42.56390380859375</v>
+        <v>42.56389999389648</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>94.85250000000001</v>
       </c>
       <c r="F41">
-        <v>57.74325942993164</v>
+        <v>57.74325561523438</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>91.9205</v>
       </c>
       <c r="F49">
-        <v>42.56387710571289</v>
+        <v>42.56388092041016</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>42.56417465209961</v>
+        <v>42.56417846679688</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>87.05159999999999</v>
       </c>
       <c r="F52">
-        <v>42.56519317626953</v>
+        <v>42.565185546875</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>55.50165176391602</v>
+        <v>55.50165939331055</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>92.267</v>
       </c>
       <c r="F55">
-        <v>42.93858337402344</v>
+        <v>42.93857955932617</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>63.5626</v>
       </c>
       <c r="F56">
-        <v>42.56389617919922</v>
+        <v>42.56389236450195</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>94.23860000000001</v>
       </c>
       <c r="F61">
-        <v>42.56390762329102</v>
+        <v>42.56391143798828</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>93.1279</v>
       </c>
       <c r="F62">
-        <v>42.56641006469727</v>
+        <v>42.56641387939453</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>93.2159</v>
       </c>
       <c r="F63">
-        <v>55.54679107666016</v>
+        <v>55.54679870605469</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>42.56631851196289</v>
+        <v>42.56632232666016</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>89.6328</v>
       </c>
       <c r="F75">
-        <v>55.50120544433594</v>
+        <v>55.50120162963867</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>84.90900000000001</v>
       </c>
       <c r="F77">
-        <v>55.51597213745117</v>
+        <v>55.51596832275391</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>54.92522811889648</v>
+        <v>54.92522430419922</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>97.88209999999999</v>
       </c>
       <c r="F79">
-        <v>55.50193405151367</v>
+        <v>55.5019416809082</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>42.56391906738281</v>
+        <v>42.56391525268555</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>36.4333</v>
       </c>
       <c r="F84">
-        <v>47.94087219238281</v>
+        <v>47.94086837768555</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.43989999999999</v>
       </c>
       <c r="F85">
-        <v>46.62442779541016</v>
+        <v>46.62442398071289</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>42.56388092041016</v>
+        <v>42.56388854980469</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>55.4810905456543</v>
+        <v>55.48108673095703</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>92.3792</v>
       </c>
       <c r="F94">
-        <v>42.57366180419922</v>
+        <v>42.57365798950195</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>42.56393432617188</v>
+        <v>42.56394195556641</v>
       </c>
     </row>
     <row r="96" spans="1:6">
